--- a/Week 3/resources/Tinder API 명세서.xlsx
+++ b/Week 3/resources/Tinder API 명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwoo/Desktop/라이징캠프+/Rising-Camp-Plus-Backend/Week 3/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B48DC86-800D-CF43-9309-49786EE5444D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4429B0-4D62-3943-8ED3-7F6A2F216364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="158">
   <si>
     <t>Server</t>
   </si>
@@ -1184,10 +1184,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -2954,7 +2954,7 @@
   <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H15" sqref="H15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -3272,8 +3272,12 @@
       <c r="G15" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
+      <c r="H15" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="I15" s="17" t="s">
+        <v>66</v>
+      </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -9866,21 +9870,21 @@
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -9888,10 +9892,10 @@
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="19"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -9899,10 +9903,10 @@
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -9910,10 +9914,10 @@
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="19"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -9921,10 +9925,10 @@
     <row r="26" spans="1:9" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="19"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="21"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
@@ -9932,10 +9936,10 @@
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="21"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="21"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
@@ -9943,10 +9947,10 @@
     <row r="28" spans="1:9" ht="15.75" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="19"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="21"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
@@ -9954,10 +9958,10 @@
     <row r="29" spans="1:9" ht="15.75" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="19"/>
-      <c r="C29" s="21"/>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="21"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="9"/>
@@ -9965,10 +9969,10 @@
     <row r="30" spans="1:9" ht="15.75" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="19"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -9976,10 +9980,10 @@
     <row r="31" spans="1:9" ht="15.75" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="19"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="21"/>
-      <c r="E31" s="21"/>
-      <c r="F31" s="21"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -9987,10 +9991,10 @@
     <row r="32" spans="1:9" ht="15.75" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="19"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -9998,10 +10002,10 @@
     <row r="33" spans="1:9" ht="15.75" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="19"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="21"/>
-      <c r="E33" s="21"/>
-      <c r="F33" s="21"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -10009,10 +10013,10 @@
     <row r="34" spans="1:9" ht="15.75" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -10020,10 +10024,10 @@
     <row r="35" spans="1:9" ht="15.75" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="20"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -10031,10 +10035,10 @@
     <row r="36" spans="1:9" ht="15.75" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="20"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="27"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
@@ -10042,10 +10046,10 @@
     <row r="37" spans="1:9" ht="15.75" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="21"/>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="27"/>
       <c r="G37" s="1"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -10053,10 +10057,10 @@
     <row r="38" spans="1:9" ht="15.75" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="19"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="21"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
@@ -10064,10 +10068,10 @@
     <row r="39" spans="1:9" ht="15.75" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="19"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="21"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -10075,10 +10079,10 @@
     <row r="40" spans="1:9" ht="15.75" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="19"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="21"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -10086,10 +10090,10 @@
     <row r="41" spans="1:9" ht="15.75" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="19"/>
-      <c r="C41" s="21"/>
-      <c r="D41" s="21"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
@@ -10097,10 +10101,10 @@
     <row r="42" spans="1:9" ht="15.75" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="19"/>
-      <c r="C42" s="21"/>
-      <c r="D42" s="21"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -10108,10 +10112,10 @@
     <row r="43" spans="1:9" ht="15.75" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="19"/>
-      <c r="C43" s="21"/>
-      <c r="D43" s="21"/>
-      <c r="E43" s="21"/>
-      <c r="F43" s="21"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="27"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
@@ -10119,10 +10123,10 @@
     <row r="44" spans="1:9" ht="15.75" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="19"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="27"/>
       <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -10130,10 +10134,10 @@
     <row r="45" spans="1:9" ht="15.75" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="20"/>
-      <c r="C45" s="21"/>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" s="21"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="27"/>
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
@@ -10141,10 +10145,10 @@
     <row r="46" spans="1:9" ht="15.75" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="20"/>
-      <c r="C46" s="21"/>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
-      <c r="F46" s="21"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
       <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
@@ -10152,10 +10156,10 @@
     <row r="47" spans="1:9" ht="15.75" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="20"/>
-      <c r="C47" s="21"/>
-      <c r="D47" s="21"/>
-      <c r="E47" s="21"/>
-      <c r="F47" s="21"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="27"/>
       <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
@@ -10163,10 +10167,10 @@
     <row r="48" spans="1:9" ht="15.75" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="20"/>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="27"/>
+      <c r="F48" s="27"/>
       <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
@@ -10174,10 +10178,10 @@
     <row r="49" spans="1:9" ht="15.75" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="20"/>
-      <c r="C49" s="21"/>
-      <c r="D49" s="21"/>
-      <c r="E49" s="21"/>
-      <c r="F49" s="21"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
@@ -10185,10 +10189,10 @@
     <row r="50" spans="1:9" ht="15.75" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="20"/>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
@@ -11535,39 +11539,39 @@
     <row r="19" spans="1:9" ht="15.75" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="19"/>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="21"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="27"/>
       <c r="I19" s="1"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="19"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="27"/>
       <c r="I20" s="1"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="19"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
       <c r="I21" s="1"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="19"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -11575,10 +11579,10 @@
     <row r="23" spans="1:9" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="19"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -11586,10 +11590,10 @@
     <row r="24" spans="1:9" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="19"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -11597,10 +11601,10 @@
     <row r="25" spans="1:9" ht="15.75" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="19"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -11621,14 +11625,14 @@
     <row r="27" spans="1:9" ht="15.75" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="19"/>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="26" t="s">
         <v>79</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="26"/>
       <c r="G27" s="25"/>
       <c r="H27" s="25"/>
       <c r="I27" s="1"/>

--- a/Week 3/resources/Tinder API 명세서.xlsx
+++ b/Week 3/resources/Tinder API 명세서.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinwoo/Desktop/라이징캠프+/Rising-Camp-Plus-Backend/Week 3/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4429B0-4D62-3943-8ED3-7F6A2F216364}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943D8D81-6D53-A74C-9F49-16CE28E8F216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2953,8 +2953,8 @@
   </sheetPr>
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:I15"/>
+    <sheetView tabSelected="1" zoomScale="108" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -9527,9 +9527,7 @@
   </sheetPr>
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -9541,7 +9539,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="22" t="s">
         <v>84</v>
       </c>
       <c r="B1" s="17" t="s">
